--- a/Sample Companies Financials Original Format.xlsx
+++ b/Sample Companies Financials Original Format.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="775" documentId="8_{B5691506-39FA-424E-99D4-26D7CBA25480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C24C90A-1914-4DA1-B210-5CEABA4E03B3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D767867-0467-441D-9DC3-18181976D26B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3D767867-0467-441D-9DC3-18181976D26B}"/>
   </bookViews>
   <sheets>
     <sheet name="Entered data" sheetId="1" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D36DD3-6B56-4F2F-A2FA-7F51CDCFAD25}">
   <dimension ref="A3:K286"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="A289" sqref="A289"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -6409,7 +6409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C384203C-F021-4178-95D6-38ABC9D05E39}">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Sample Companies Financials Original Format.xlsx
+++ b/Sample Companies Financials Original Format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3708a04485001ab/Platform/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="775" documentId="8_{B5691506-39FA-424E-99D4-26D7CBA25480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C24C90A-1914-4DA1-B210-5CEABA4E03B3}"/>
+  <xr:revisionPtr revIDLastSave="776" documentId="8_{B5691506-39FA-424E-99D4-26D7CBA25480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9E9CC46-8692-4576-900A-585D70F3CE41}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3D767867-0467-441D-9DC3-18181976D26B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D767867-0467-441D-9DC3-18181976D26B}"/>
   </bookViews>
   <sheets>
     <sheet name="Entered data" sheetId="1" r:id="rId1"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D36DD3-6B56-4F2F-A2FA-7F51CDCFAD25}">
   <dimension ref="A3:K286"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+    <sheetView showGridLines="0" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="H276" sqref="H276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -6407,9 +6407,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C384203C-F021-4178-95D6-38ABC9D05E39}">
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G38" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10256,6 +10258,12 @@
         <v>0.43897108271687962</v>
       </c>
     </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P63" s="12">
+        <f>MAX(P2:P61)</f>
+        <v>2.4563106796116503</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample Companies Financials Original Format.xlsx
+++ b/Sample Companies Financials Original Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3708a04485001ab/Platform/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="776" documentId="8_{B5691506-39FA-424E-99D4-26D7CBA25480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9E9CC46-8692-4576-900A-585D70F3CE41}"/>
+  <xr:revisionPtr revIDLastSave="816" documentId="8_{B5691506-39FA-424E-99D4-26D7CBA25480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{578CF9E8-7396-4765-A0AB-58BEF92A7147}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D767867-0467-441D-9DC3-18181976D26B}"/>
   </bookViews>
@@ -360,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -412,6 +412,15 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D36DD3-6B56-4F2F-A2FA-7F51CDCFAD25}">
   <dimension ref="A3:K286"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="H276" sqref="H276"/>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1545,23 +1554,23 @@
         <v>6</v>
       </c>
       <c r="B40" s="9">
-        <f>-B30/B34</f>
-        <v>0.56774193548387097</v>
+        <f>B30/B34</f>
+        <v>-0.56774193548387097</v>
       </c>
       <c r="C40" s="9">
-        <f>-C30/C34</f>
-        <v>0.6257309941520468</v>
+        <f t="shared" ref="C40:F40" si="6">C30/C34</f>
+        <v>-0.6257309941520468</v>
       </c>
       <c r="D40" s="9">
-        <f>-D30/D34</f>
-        <v>0.40645161290322579</v>
+        <f t="shared" si="6"/>
+        <v>-0.40645161290322579</v>
       </c>
       <c r="E40" s="9">
-        <f>-E30/E34</f>
-        <v>2.4563106796116503</v>
+        <f t="shared" si="6"/>
+        <v>-2.4563106796116503</v>
       </c>
       <c r="F40" s="9">
-        <f>-F30/F34</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -1573,23 +1582,23 @@
         <v>30</v>
       </c>
       <c r="B41" s="12">
-        <f xml:space="preserve"> B31/B28</f>
+        <f>B31/B28</f>
         <v>-7.1856287425149698E-2</v>
       </c>
       <c r="C41" s="12">
-        <f xml:space="preserve"> C31/C28</f>
+        <f t="shared" ref="C41:F41" si="7">C31/C28</f>
         <v>-0.15258148254975484</v>
       </c>
       <c r="D41" s="12">
-        <f xml:space="preserve"> D31/D28</f>
+        <f t="shared" si="7"/>
         <v>-6.7534294759057339E-2</v>
       </c>
       <c r="E41" s="12">
-        <f xml:space="preserve"> E31/E28</f>
+        <f t="shared" si="7"/>
         <v>-0.14991055456171734</v>
       </c>
       <c r="F41" s="12">
-        <f xml:space="preserve"> F31/F28</f>
+        <f t="shared" si="7"/>
         <v>-5.6476916181084719E-2</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -1633,19 +1642,19 @@
         <v>1.1581798483206933</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" ref="C43:F43" si="6">C35/C36</f>
+        <f t="shared" ref="C43:F43" si="8">C35/C36</f>
         <v>1.5472186287192755</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7712121212121212</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3246268656716418</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8363636363636364</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -1999,24 +2008,24 @@
         <v>6</v>
       </c>
       <c r="B62" s="9">
-        <f>-B52/B56</f>
-        <v>-5</v>
+        <f t="shared" ref="B62:E62" si="9">B52/B56</f>
+        <v>5</v>
       </c>
       <c r="C62" s="9">
-        <f>-C52/C56</f>
-        <v>-7.4444444444444446</v>
+        <f t="shared" si="9"/>
+        <v>7.4444444444444446</v>
       </c>
       <c r="D62" s="9">
-        <f>-D52/D56</f>
-        <v>-6.2222222222222223</v>
+        <f t="shared" si="9"/>
+        <v>6.2222222222222223</v>
       </c>
       <c r="E62" s="9">
-        <f>-E52/E56</f>
-        <v>-4.6190476190476186</v>
+        <f t="shared" si="9"/>
+        <v>4.6190476190476186</v>
       </c>
       <c r="F62" s="9">
-        <f>-F52/F56</f>
-        <v>-12.818181818181818</v>
+        <f>F52/F56</f>
+        <v>12.818181818181818</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,23 +2033,23 @@
         <v>30</v>
       </c>
       <c r="B63" s="12">
-        <f xml:space="preserve"> B53/B50</f>
+        <f>B53/B50</f>
         <v>6.5331928345626969E-2</v>
       </c>
       <c r="C63" s="12">
-        <f xml:space="preserve"> C53/C50</f>
+        <f t="shared" ref="C63:F63" si="10">C53/C50</f>
         <v>7.0742799393633149E-2</v>
       </c>
       <c r="D63" s="12">
-        <f xml:space="preserve"> D53/D50</f>
+        <f t="shared" si="10"/>
         <v>5.5940023068050751E-2</v>
       </c>
       <c r="E63" s="12">
-        <f xml:space="preserve"> E53/E50</f>
+        <f t="shared" si="10"/>
         <v>5.584950029394474E-2</v>
       </c>
       <c r="F63" s="12">
-        <f xml:space="preserve"> F53/F50</f>
+        <f t="shared" si="10"/>
         <v>4.6524985640436528E-2</v>
       </c>
     </row>
@@ -2078,19 +2087,19 @@
         <v>1.5586734693877551</v>
       </c>
       <c r="C65" s="9">
-        <f t="shared" ref="C65:F65" si="7">C57/C58</f>
+        <f t="shared" ref="C65:F65" si="11">C57/C58</f>
         <v>1.2868852459016393</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.5644768856447688</v>
       </c>
       <c r="E65" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.7446808510638299</v>
       </c>
       <c r="F65" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.2457831325301205</v>
       </c>
     </row>
@@ -2428,24 +2437,24 @@
         <v>6</v>
       </c>
       <c r="B84" s="9">
-        <f>-B74/B78</f>
-        <v>-3.588888888888889</v>
+        <f t="shared" ref="B84:E84" si="12">B74/B78</f>
+        <v>3.588888888888889</v>
       </c>
       <c r="C84" s="9">
-        <f>-C74/C78</f>
-        <v>-2.8452380952380953</v>
+        <f t="shared" si="12"/>
+        <v>2.8452380952380953</v>
       </c>
       <c r="D84" s="9">
-        <f>-D74/D78</f>
-        <v>-2.4301075268817205</v>
+        <f t="shared" si="12"/>
+        <v>2.4301075268817205</v>
       </c>
       <c r="E84" s="9">
-        <f>-E74/E78</f>
-        <v>-2.9680851063829787</v>
+        <f t="shared" si="12"/>
+        <v>2.9680851063829787</v>
       </c>
       <c r="F84" s="9">
-        <f>-F74/F78</f>
-        <v>-2.2109375</v>
+        <f>F74/F78</f>
+        <v>2.2109375</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2453,23 +2462,23 @@
         <v>30</v>
       </c>
       <c r="B85" s="12">
-        <f xml:space="preserve"> B75/B72</f>
+        <f>B75/B72</f>
         <v>-0.12521109770808203</v>
       </c>
       <c r="C85" s="12">
-        <f xml:space="preserve"> C75/C72</f>
+        <f t="shared" ref="C85:F85" si="13">C75/C72</f>
         <v>9.7174571140262359E-2</v>
       </c>
       <c r="D85" s="12">
-        <f xml:space="preserve"> D75/D72</f>
+        <f t="shared" si="13"/>
         <v>-0.11616901408450704</v>
       </c>
       <c r="E85" s="12">
-        <f xml:space="preserve"> E75/E72</f>
+        <f t="shared" si="13"/>
         <v>-9.1329479768786123E-2</v>
       </c>
       <c r="F85" s="12">
-        <f xml:space="preserve"> F75/F72</f>
+        <f t="shared" si="13"/>
         <v>-2.3743472584856398E-2</v>
       </c>
     </row>
@@ -2507,19 +2516,19 @@
         <v>0.35927601809954751</v>
       </c>
       <c r="C87" s="9">
-        <f t="shared" ref="C87:F87" si="8">C79/C80</f>
+        <f t="shared" ref="C87:F87" si="14">C79/C80</f>
         <v>0.37706855791962174</v>
       </c>
       <c r="D87" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.39729232826341299</v>
       </c>
       <c r="E87" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.42269483699454319</v>
       </c>
       <c r="F87" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.34802624007365635</v>
       </c>
     </row>
@@ -2856,24 +2865,24 @@
         <v>6</v>
       </c>
       <c r="B106" s="9">
-        <f>-B96/B100</f>
-        <v>-90.550420168067234</v>
+        <f t="shared" ref="B106:E106" si="15">B96/B100</f>
+        <v>90.550420168067234</v>
       </c>
       <c r="C106" s="9">
-        <f>-C96/C100</f>
-        <v>-76.770833333333329</v>
+        <f t="shared" si="15"/>
+        <v>76.770833333333329</v>
       </c>
       <c r="D106" s="9">
-        <f>-D96/D100</f>
-        <v>-71.14556962025317</v>
+        <f t="shared" si="15"/>
+        <v>71.14556962025317</v>
       </c>
       <c r="E106" s="9">
-        <f>-E96/E100</f>
-        <v>-58.0625</v>
+        <f t="shared" si="15"/>
+        <v>58.0625</v>
       </c>
       <c r="F106" s="9">
-        <f>-F96/F100</f>
-        <v>-912.35714285714289</v>
+        <f>F96/F100</f>
+        <v>912.35714285714289</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2881,23 +2890,23 @@
         <v>30</v>
       </c>
       <c r="B107" s="12">
-        <f xml:space="preserve"> B97/B94</f>
+        <f>B97/B94</f>
         <v>0.29049510937373585</v>
       </c>
       <c r="C107" s="12">
-        <f xml:space="preserve"> C97/C94</f>
+        <f t="shared" ref="C107:F107" si="16">C97/C94</f>
         <v>0.28193728962829806</v>
       </c>
       <c r="D107" s="12">
-        <f xml:space="preserve"> D97/D94</f>
+        <f t="shared" si="16"/>
         <v>0.26993797007533527</v>
       </c>
       <c r="E107" s="12">
-        <f xml:space="preserve"> E97/E94</f>
+        <f t="shared" si="16"/>
         <v>0.27462920919179273</v>
       </c>
       <c r="F107" s="12">
-        <f xml:space="preserve"> F97/F94</f>
+        <f t="shared" si="16"/>
         <v>0.29386194210475358</v>
       </c>
     </row>
@@ -2935,19 +2944,19 @@
         <v>6.5443244578015744E-2</v>
       </c>
       <c r="C109" s="9">
-        <f t="shared" ref="C109:F109" si="9">C101/C102</f>
+        <f t="shared" ref="C109:F109" si="17">C101/C102</f>
         <v>9.2920221299308811E-2</v>
       </c>
       <c r="D109" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.10623680264406157</v>
       </c>
       <c r="E109" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13722982478577822</v>
       </c>
       <c r="F109" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>2.7189384520641857E-3</v>
       </c>
     </row>
@@ -3284,24 +3293,24 @@
         <v>6</v>
       </c>
       <c r="B128" s="9">
-        <f>-B118/B122</f>
-        <v>-3.9680851063829787</v>
+        <f t="shared" ref="B128:E128" si="18">B118/B122</f>
+        <v>3.9680851063829787</v>
       </c>
       <c r="C128" s="9">
-        <f>-C118/C122</f>
-        <v>-4.2541666666666664</v>
+        <f t="shared" si="18"/>
+        <v>4.2541666666666664</v>
       </c>
       <c r="D128" s="9">
-        <f>-D118/D122</f>
-        <v>-5.5340314136125652</v>
+        <f t="shared" si="18"/>
+        <v>5.5340314136125652</v>
       </c>
       <c r="E128" s="9">
-        <f>-E118/E122</f>
-        <v>-4.5162790697674415</v>
+        <f t="shared" si="18"/>
+        <v>4.5162790697674415</v>
       </c>
       <c r="F128" s="9">
-        <f>-F118/F122</f>
-        <v>-17.731343283582088</v>
+        <f>F118/F122</f>
+        <v>17.731343283582088</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3309,23 +3318,23 @@
         <v>30</v>
       </c>
       <c r="B129" s="12">
-        <f xml:space="preserve"> B119/B116</f>
+        <f>B119/B116</f>
         <v>0.22439024390243903</v>
       </c>
       <c r="C129" s="12">
-        <f xml:space="preserve"> C119/C116</f>
+        <f t="shared" ref="C129:F129" si="19">C119/C116</f>
         <v>0.15671211830228537</v>
       </c>
       <c r="D129" s="12">
-        <f xml:space="preserve"> D119/D116</f>
+        <f t="shared" si="19"/>
         <v>0.17375478927203064</v>
       </c>
       <c r="E129" s="12">
-        <f xml:space="preserve"> E119/E116</f>
+        <f t="shared" si="19"/>
         <v>0.14116852414724756</v>
       </c>
       <c r="F129" s="12">
-        <f xml:space="preserve"> F119/F116</f>
+        <f t="shared" si="19"/>
         <v>0.19666572478101157</v>
       </c>
     </row>
@@ -3363,19 +3372,19 @@
         <v>-3.687313432835821</v>
       </c>
       <c r="C131" s="9">
-        <f t="shared" ref="C131:F131" si="10">C123/C124</f>
+        <f t="shared" ref="C131:F131" si="20">C123/C124</f>
         <v>-4.3182624113475176</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-7.6075085324232079</v>
       </c>
       <c r="E131" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-51.397727272727273</v>
       </c>
       <c r="F131" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-6.0121065375302667</v>
       </c>
     </row>
@@ -3709,24 +3718,24 @@
         <v>6</v>
       </c>
       <c r="B150" s="9">
-        <f>-B140/B144</f>
-        <v>-57.920634920634917</v>
+        <f t="shared" ref="B150:E150" si="21">B140/B144</f>
+        <v>57.920634920634917</v>
       </c>
       <c r="C150" s="9">
-        <f>-C140/C144</f>
-        <v>-53.957805907172997</v>
+        <f t="shared" si="21"/>
+        <v>53.957805907172997</v>
       </c>
       <c r="D150" s="9">
-        <f>-D140/D144</f>
-        <v>-31.915397631133672</v>
+        <f t="shared" si="21"/>
+        <v>31.915397631133672</v>
       </c>
       <c r="E150" s="9">
-        <f>-E140/E144</f>
-        <v>-28.816161616161615</v>
+        <f t="shared" si="21"/>
+        <v>28.816161616161615</v>
       </c>
       <c r="F150" s="9">
-        <f>-F140/F144</f>
-        <v>-395.21212121212119</v>
+        <f>F140/F144</f>
+        <v>395.21212121212119</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -3734,23 +3743,23 @@
         <v>30</v>
       </c>
       <c r="B151" s="12">
-        <f xml:space="preserve"> B141/B138</f>
+        <f>B141/B138</f>
         <v>6.4243620542472069E-2</v>
       </c>
       <c r="C151" s="12">
-        <f xml:space="preserve"> C141/C138</f>
+        <f t="shared" ref="C151:F151" si="22">C141/C138</f>
         <v>5.8395018617949983E-2</v>
       </c>
       <c r="D151" s="12">
-        <f xml:space="preserve"> D141/D138</f>
+        <f t="shared" si="22"/>
         <v>5.2852132105248945E-2</v>
       </c>
       <c r="E151" s="12">
-        <f xml:space="preserve"> E141/E138</f>
+        <f t="shared" si="22"/>
         <v>4.5708191869069381E-2</v>
       </c>
       <c r="F151" s="12">
-        <f xml:space="preserve"> F141/F138</f>
+        <f t="shared" si="22"/>
         <v>4.4651436794097339E-2</v>
       </c>
     </row>
@@ -3788,19 +3797,19 @@
         <v>4.5624421043665285E-2</v>
       </c>
       <c r="C153" s="9">
-        <f t="shared" ref="C153:F153" si="11">C145/C146</f>
+        <f t="shared" ref="C153:F153" si="23">C145/C146</f>
         <v>5.8951642017174746E-2</v>
       </c>
       <c r="D153" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>6.6181671213499035E-2</v>
       </c>
       <c r="E153" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>8.648854502816139E-2</v>
       </c>
       <c r="F153" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4138,24 +4147,24 @@
         <v>6</v>
       </c>
       <c r="B172" s="9">
-        <f>-B162/B166</f>
-        <v>-10.052631578947368</v>
+        <f t="shared" ref="B172:E172" si="24">B162/B166</f>
+        <v>10.052631578947368</v>
       </c>
       <c r="C172" s="9">
-        <f>-C162/C166</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D172" s="9">
-        <f>-D162/D166</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E172" s="9">
-        <f>-E162/E166</f>
-        <v>-3.6904761904761907</v>
+        <f t="shared" si="24"/>
+        <v>3.6904761904761907</v>
       </c>
       <c r="F172" s="9">
-        <f>-F162/F166</f>
-        <v>-1.8717948717948718</v>
+        <f>F162/F166</f>
+        <v>1.8717948717948718</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4163,23 +4172,23 @@
         <v>30</v>
       </c>
       <c r="B173" s="12">
-        <f xml:space="preserve"> B163/B160</f>
+        <f>B163/B160</f>
         <v>0.12996171670360668</v>
       </c>
       <c r="C173" s="12">
-        <f xml:space="preserve"> C163/C160</f>
+        <f t="shared" ref="C173:F173" si="25">C163/C160</f>
         <v>0.2106856012105692</v>
       </c>
       <c r="D173" s="12">
-        <f xml:space="preserve"> D163/D160</f>
+        <f t="shared" si="25"/>
         <v>5.3697453206505062E-2</v>
       </c>
       <c r="E173" s="12">
-        <f xml:space="preserve"> E163/E160</f>
+        <f t="shared" si="25"/>
         <v>0.11424219345011424</v>
       </c>
       <c r="F173" s="12">
-        <f xml:space="preserve"> F163/F160</f>
+        <f t="shared" si="25"/>
         <v>3.7760995113282986E-2</v>
       </c>
     </row>
@@ -4217,19 +4226,19 @@
         <v>1.0333993072736269</v>
       </c>
       <c r="C175" s="9">
-        <f t="shared" ref="C175:F175" si="12">C167/C168</f>
+        <f t="shared" ref="C175:F175" si="26">C167/C168</f>
         <v>1.1395490554539915</v>
       </c>
       <c r="D175" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>2.3259853039412159</v>
       </c>
       <c r="E175" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>6.4368794326241137</v>
       </c>
       <c r="F175" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>-46.13095238095238</v>
       </c>
     </row>
@@ -4566,21 +4575,15 @@
         <v>6</v>
       </c>
       <c r="B194" s="9">
-        <f>-B184/B188</f>
-        <v>-194.77777777777777</v>
+        <f t="shared" ref="B194:C194" si="27">B184/B188</f>
+        <v>194.77777777777777</v>
       </c>
       <c r="C194" s="9">
-        <f>-C184/C188</f>
-        <v>-199.125</v>
-      </c>
-      <c r="D194" s="9">
-        <f>-D184/D188</f>
-        <v>0</v>
-      </c>
-      <c r="E194" s="9">
-        <f>-E184/E188</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="27"/>
+        <v>199.125</v>
+      </c>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
       <c r="F194" s="9"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -4588,23 +4591,23 @@
         <v>30</v>
       </c>
       <c r="B195" s="12">
-        <f xml:space="preserve"> B185/B182</f>
+        <f>B185/B182</f>
         <v>0.41217870257037942</v>
       </c>
       <c r="C195" s="12">
-        <f xml:space="preserve"> C185/C182</f>
+        <f t="shared" ref="C195:F195" si="28">C185/C182</f>
         <v>0.3998754282155092</v>
       </c>
       <c r="D195" s="12">
-        <f xml:space="preserve"> D185/D182</f>
+        <f t="shared" si="28"/>
         <v>0.43308484203052894</v>
       </c>
       <c r="E195" s="12">
-        <f xml:space="preserve"> E185/E182</f>
+        <f t="shared" si="28"/>
         <v>0.34344894026974954</v>
       </c>
       <c r="F195" s="12">
-        <f xml:space="preserve"> F185/F182</f>
+        <f t="shared" si="28"/>
         <v>0.47841982846343944</v>
       </c>
     </row>
@@ -4642,19 +4645,19 @@
         <v>0.17014036580178649</v>
       </c>
       <c r="C197" s="9">
-        <f t="shared" ref="C197:F197" si="13">C189/C190</f>
+        <f t="shared" ref="C197:F197" si="29">C189/C190</f>
         <v>0.16915210907541542</v>
       </c>
       <c r="D197" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.195618950585838</v>
       </c>
       <c r="E197" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0.2131637995512341</v>
       </c>
       <c r="F197" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -4991,24 +4994,24 @@
         <v>6</v>
       </c>
       <c r="B216" s="9">
-        <f>-B206/B210</f>
-        <v>-24.625</v>
+        <f t="shared" ref="B216:E216" si="30">B206/B210</f>
+        <v>24.625</v>
       </c>
       <c r="C216" s="9">
-        <f>-C206/C210</f>
-        <v>-42.8</v>
+        <f t="shared" si="30"/>
+        <v>42.8</v>
       </c>
       <c r="D216" s="9">
-        <f>-D206/D210</f>
-        <v>-15.166666666666666</v>
+        <f t="shared" si="30"/>
+        <v>15.166666666666666</v>
       </c>
       <c r="E216" s="9">
-        <f>-E206/E210</f>
-        <v>-19.285714285714285</v>
+        <f t="shared" si="30"/>
+        <v>19.285714285714285</v>
       </c>
       <c r="F216" s="9">
-        <f>-F206/F210</f>
-        <v>-83</v>
+        <f>F206/F210</f>
+        <v>83</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -5016,23 +5019,23 @@
         <v>30</v>
       </c>
       <c r="B217" s="12">
-        <f xml:space="preserve"> B207/B204</f>
+        <f>B207/B204</f>
         <v>7.2478991596638662E-2</v>
       </c>
       <c r="C217" s="12">
-        <f xml:space="preserve"> C207/C204</f>
+        <f t="shared" ref="C217:F217" si="31">C207/C204</f>
         <v>7.4145402022147325E-2</v>
       </c>
       <c r="D217" s="12">
-        <f xml:space="preserve"> D207/D204</f>
+        <f t="shared" si="31"/>
         <v>3.3084311632870865E-2</v>
       </c>
       <c r="E217" s="12">
-        <f xml:space="preserve"> E207/E204</f>
+        <f t="shared" si="31"/>
         <v>2.4742268041237112E-2</v>
       </c>
       <c r="F217" s="12">
-        <f xml:space="preserve"> F207/F204</f>
+        <f t="shared" si="31"/>
         <v>0.10778443113772455</v>
       </c>
     </row>
@@ -5070,19 +5073,19 @@
         <v>0.2373134328358209</v>
       </c>
       <c r="C219" s="9">
-        <f t="shared" ref="C219:F219" si="14">C211/C212</f>
+        <f t="shared" ref="C219:F219" si="32">C211/C212</f>
         <v>0.18216080402010051</v>
       </c>
       <c r="D219" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.18807339449541285</v>
       </c>
       <c r="E219" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0.21688159437280188</v>
       </c>
       <c r="F219" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -5420,24 +5423,24 @@
         <v>6</v>
       </c>
       <c r="B238" s="9">
-        <f>-B228/B232</f>
-        <v>-11.136580007323325</v>
+        <f t="shared" ref="B238:E238" si="33">B228/B232</f>
+        <v>11.136580007323325</v>
       </c>
       <c r="C238" s="9">
-        <f>-C228/C232</f>
-        <v>-21.750274544256534</v>
+        <f t="shared" si="33"/>
+        <v>21.750274544256534</v>
       </c>
       <c r="D238" s="9">
-        <f>-D228/D232</f>
-        <v>-10.447841105354058</v>
+        <f t="shared" si="33"/>
+        <v>10.447841105354058</v>
       </c>
       <c r="E238" s="9">
-        <f>-E228/E232</f>
-        <v>-2.9826224328593995</v>
+        <f t="shared" si="33"/>
+        <v>2.9826224328593995</v>
       </c>
       <c r="F238" s="9">
-        <f>-F228/F232</f>
-        <v>-19.419522571496099</v>
+        <f>F228/F232</f>
+        <v>19.419522571496099</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -5445,23 +5448,23 @@
         <v>30</v>
       </c>
       <c r="B239" s="12">
-        <f xml:space="preserve"> B229/B226</f>
+        <f>B229/B226</f>
         <v>2.7922479982923003E-2</v>
       </c>
       <c r="C239" s="12">
-        <f xml:space="preserve"> C229/C226</f>
+        <f t="shared" ref="C239:F239" si="34">C229/C226</f>
         <v>0.11393556743604333</v>
       </c>
       <c r="D239" s="12">
-        <f xml:space="preserve"> D229/D226</f>
+        <f t="shared" si="34"/>
         <v>4.2072729629183896E-2</v>
       </c>
       <c r="E239" s="12">
-        <f xml:space="preserve"> E229/E226</f>
+        <f t="shared" si="34"/>
         <v>-4.1218445552258919E-2</v>
       </c>
       <c r="F239" s="12">
-        <f xml:space="preserve"> F229/F226</f>
+        <f t="shared" si="34"/>
         <v>8.621036236235198E-2</v>
       </c>
     </row>
@@ -5499,19 +5502,19 @@
         <v>0.33394353622579509</v>
       </c>
       <c r="C241" s="9">
-        <f t="shared" ref="C241:F241" si="15">C233/C234</f>
+        <f t="shared" ref="C241:F241" si="35">C233/C234</f>
         <v>0.30076956529051513</v>
       </c>
       <c r="D241" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>0.28368093868803884</v>
       </c>
       <c r="E241" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>0.27885671486486824</v>
       </c>
       <c r="F241" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>0.27509094315971749</v>
       </c>
     </row>
@@ -5848,24 +5851,24 @@
         <v>6</v>
       </c>
       <c r="B260" s="9">
-        <f>-B250/B254</f>
-        <v>-5.17741935483871</v>
+        <f t="shared" ref="B260:E260" si="36">B250/B254</f>
+        <v>5.17741935483871</v>
       </c>
       <c r="C260" s="9">
-        <f>-C250/C254</f>
-        <v>-15.605263157894736</v>
+        <f t="shared" si="36"/>
+        <v>15.605263157894736</v>
       </c>
       <c r="D260" s="9">
-        <f>-D250/D254</f>
-        <v>-11.620689655172415</v>
+        <f t="shared" si="36"/>
+        <v>11.620689655172415</v>
       </c>
       <c r="E260" s="9">
-        <f>-E250/E254</f>
-        <v>-11.390243902439025</v>
+        <f t="shared" si="36"/>
+        <v>11.390243902439025</v>
       </c>
       <c r="F260" s="9">
-        <f>-F250/F254</f>
-        <v>-7.8354430379746836</v>
+        <f>F250/F254</f>
+        <v>7.8354430379746836</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -5873,23 +5876,23 @@
         <v>30</v>
       </c>
       <c r="B261" s="12">
-        <f xml:space="preserve"> B251/B248</f>
+        <f>B251/B248</f>
         <v>5.0107372942018613E-2</v>
       </c>
       <c r="C261" s="12">
-        <f xml:space="preserve"> C251/C248</f>
+        <f t="shared" ref="C261:F261" si="37">C251/C248</f>
         <v>9.5642458100558658E-2</v>
       </c>
       <c r="D261" s="12">
-        <f xml:space="preserve"> D251/D248</f>
+        <f t="shared" si="37"/>
         <v>8.9150943396226409E-2</v>
       </c>
       <c r="E261" s="12">
-        <f xml:space="preserve"> E251/E248</f>
+        <f t="shared" si="37"/>
         <v>7.2097141411586144E-2</v>
       </c>
       <c r="F261" s="12">
-        <f xml:space="preserve"> F251/F248</f>
+        <f t="shared" si="37"/>
         <v>0.13256726457399104</v>
       </c>
     </row>
@@ -5927,19 +5930,19 @@
         <v>0.46772428884026257</v>
       </c>
       <c r="C263" s="9">
-        <f t="shared" ref="C263:F263" si="16">C255/C256</f>
+        <f t="shared" ref="C263:F263" si="38">C255/C256</f>
         <v>0.34754797441364604</v>
       </c>
       <c r="D263" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="38"/>
         <v>0.52898550724637683</v>
       </c>
       <c r="E263" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="38"/>
         <v>1.0086880973066898</v>
       </c>
       <c r="F263" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="38"/>
         <v>1.2300683371298406</v>
       </c>
     </row>
@@ -6277,24 +6280,24 @@
         <v>6</v>
       </c>
       <c r="B282" s="9">
-        <f>-B272/B276</f>
-        <v>-5.6111111111111107</v>
+        <f t="shared" ref="B282:E282" si="39">B272/B276</f>
+        <v>5.6111111111111107</v>
       </c>
       <c r="C282" s="9">
-        <f>-C272/C276</f>
-        <v>-6.1341463414634143</v>
+        <f t="shared" si="39"/>
+        <v>6.1341463414634143</v>
       </c>
       <c r="D282" s="9">
-        <f>-D272/D276</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E282" s="9">
-        <f>-E272/E276</f>
-        <v>-2.7684210526315791</v>
+        <f t="shared" si="39"/>
+        <v>2.7684210526315791</v>
       </c>
       <c r="F282" s="9">
-        <f>-F272/F276</f>
-        <v>-5.1226415094339623</v>
+        <f>F272/F276</f>
+        <v>5.1226415094339623</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6302,23 +6305,23 @@
         <v>30</v>
       </c>
       <c r="B283" s="12">
-        <f xml:space="preserve"> B273/B270</f>
+        <f>B273/B270</f>
         <v>3.7558685446009391E-2</v>
       </c>
       <c r="C283" s="12">
-        <f xml:space="preserve"> C273/C270</f>
+        <f t="shared" ref="C283:F283" si="40">C273/C270</f>
         <v>1.74017401740174E-2</v>
       </c>
       <c r="D283" s="12">
-        <f xml:space="preserve"> D273/D270</f>
+        <f t="shared" si="40"/>
         <v>2.5051652892561983E-2</v>
       </c>
       <c r="E283" s="12">
-        <f xml:space="preserve"> E273/E270</f>
+        <f t="shared" si="40"/>
         <v>3.4642032332563508E-2</v>
       </c>
       <c r="F283" s="12">
-        <f xml:space="preserve"> F273/F270</f>
+        <f t="shared" si="40"/>
         <v>6.9435104236718226E-2</v>
       </c>
     </row>
@@ -6356,19 +6359,19 @@
         <v>0.58723907050019697</v>
       </c>
       <c r="C285" s="9">
-        <f t="shared" ref="C285:F285" si="17">C277/C278</f>
+        <f t="shared" ref="C285:F285" si="41">C277/C278</f>
         <v>0.38467841048750512</v>
       </c>
       <c r="D285" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0.48528864059590315</v>
       </c>
       <c r="E285" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0.37464589235127477</v>
       </c>
       <c r="F285" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0.41095365760245117</v>
       </c>
     </row>
@@ -6407,18 +6410,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C384203C-F021-4178-95D6-38ABC9D05E39}">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G38" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="15"/>
     <col min="3" max="12" width="12.7109375" style="2"/>
-    <col min="13" max="20" width="12.7109375" style="12"/>
+    <col min="13" max="15" width="12.7109375" style="12"/>
+    <col min="16" max="16" width="12.7109375" style="20"/>
+    <col min="17" max="20" width="12.7109375" style="12"/>
     <col min="21" max="16384" width="12.7109375" style="15"/>
   </cols>
   <sheetData>
@@ -6468,7 +6471,7 @@
       <c r="O1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="19" t="s">
         <v>58</v>
       </c>
       <c r="Q1" s="17" t="s">
@@ -6530,8 +6533,8 @@
       <c r="O2" s="12">
         <v>-3.3374157991426824E-2</v>
       </c>
-      <c r="P2" s="12">
-        <v>0.56774193548387097</v>
+      <c r="P2" s="20">
+        <v>-0.56774193548387097</v>
       </c>
       <c r="Q2" s="12">
         <v>-7.1856287425149698E-2</v>
@@ -6595,8 +6598,8 @@
       <c r="O3" s="12">
         <v>-5.2098408104196817E-2</v>
       </c>
-      <c r="P3" s="12">
-        <v>0.6257309941520468</v>
+      <c r="P3" s="20">
+        <v>-0.6257309941520468</v>
       </c>
       <c r="Q3" s="12">
         <v>-0.15258148254975484</v>
@@ -6660,8 +6663,8 @@
       <c r="O4" s="12">
         <v>1.2054794520547946E-2</v>
       </c>
-      <c r="P4" s="12">
-        <v>0.40645161290322579</v>
+      <c r="P4" s="20">
+        <v>-0.40645161290322579</v>
       </c>
       <c r="Q4" s="12">
         <v>-6.7534294759057339E-2</v>
@@ -6725,8 +6728,8 @@
       <c r="O5" s="12">
         <v>-0.58611111111111114</v>
       </c>
-      <c r="P5" s="12">
-        <v>2.4563106796116503</v>
+      <c r="P5" s="20">
+        <v>-2.4563106796116503</v>
       </c>
       <c r="Q5" s="12">
         <v>-0.14991055456171734</v>
@@ -6790,7 +6793,7 @@
       <c r="O6" s="12">
         <v>-0.10305810397553516</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="20">
         <v>0</v>
       </c>
       <c r="Q6" s="12">
@@ -6855,8 +6858,8 @@
       <c r="O7" s="12">
         <v>8.4619782732990284E-2</v>
       </c>
-      <c r="P7" s="12">
-        <v>-5</v>
+      <c r="P7" s="20">
+        <v>5</v>
       </c>
       <c r="Q7" s="12">
         <v>6.5331928345626969E-2</v>
@@ -6870,6 +6873,7 @@
       <c r="T7" s="12">
         <v>0.2065331928345627</v>
       </c>
+      <c r="U7" s="18"/>
       <c r="V7" s="15" t="s">
         <v>66</v>
       </c>
@@ -6920,8 +6924,8 @@
       <c r="O8" s="12">
         <v>9.4004944375772559E-2</v>
       </c>
-      <c r="P8" s="12">
-        <v>-7.4444444444444446</v>
+      <c r="P8" s="20">
+        <v>7.4444444444444446</v>
       </c>
       <c r="Q8" s="12">
         <v>7.0742799393633149E-2</v>
@@ -6935,6 +6939,7 @@
       <c r="T8" s="12">
         <v>0.24658918645780697</v>
       </c>
+      <c r="U8" s="18"/>
       <c r="V8" s="15" t="s">
         <v>67</v>
       </c>
@@ -6985,8 +6990,8 @@
       <c r="O9" s="12">
         <v>0.1096797153024911</v>
       </c>
-      <c r="P9" s="12">
-        <v>-6.2222222222222223</v>
+      <c r="P9" s="20">
+        <v>6.2222222222222223</v>
       </c>
       <c r="Q9" s="12">
         <v>5.5940023068050751E-2</v>
@@ -7000,6 +7005,7 @@
       <c r="T9" s="12">
         <v>0.23702422145328719</v>
       </c>
+      <c r="U9" s="18"/>
       <c r="V9" s="15" t="s">
         <v>68</v>
       </c>
@@ -7050,8 +7056,8 @@
       <c r="O10" s="12">
         <v>7.7407932011331448E-2</v>
       </c>
-      <c r="P10" s="12">
-        <v>-4.6190476190476186</v>
+      <c r="P10" s="20">
+        <v>4.6190476190476186</v>
       </c>
       <c r="Q10" s="12">
         <v>5.584950029394474E-2</v>
@@ -7065,6 +7071,7 @@
       <c r="T10" s="12">
         <v>0.22104644326866549</v>
       </c>
+      <c r="U10" s="18"/>
       <c r="V10" s="15" t="s">
         <v>69</v>
       </c>
@@ -7115,8 +7122,8 @@
       <c r="O11" s="12">
         <v>6.3171521035598699E-2</v>
       </c>
-      <c r="P11" s="12">
-        <v>-12.818181818181818</v>
+      <c r="P11" s="20">
+        <v>12.818181818181818</v>
       </c>
       <c r="Q11" s="12">
         <v>4.6524985640436528E-2</v>
@@ -7130,6 +7137,7 @@
       <c r="T11" s="12">
         <v>0.23836875358989087</v>
       </c>
+      <c r="U11" s="18"/>
       <c r="V11" s="15" t="s">
         <v>70</v>
       </c>
@@ -7180,8 +7188,8 @@
       <c r="O12" s="12">
         <v>0.5714285714285714</v>
       </c>
-      <c r="P12" s="12">
-        <v>-3.588888888888889</v>
+      <c r="P12" s="20">
+        <v>3.588888888888889</v>
       </c>
       <c r="Q12" s="12">
         <v>-0.12521109770808203</v>
@@ -7195,6 +7203,7 @@
       <c r="T12" s="12">
         <v>0.66489746682750306</v>
       </c>
+      <c r="U12" s="18"/>
       <c r="V12" s="15" t="s">
         <v>71</v>
       </c>
@@ -7245,8 +7254,8 @@
       <c r="O13" s="12">
         <v>0.59466019417475724</v>
       </c>
-      <c r="P13" s="12">
-        <v>-2.8452380952380953</v>
+      <c r="P13" s="20">
+        <v>2.8452380952380953</v>
       </c>
       <c r="Q13" s="12">
         <v>9.7174571140262359E-2</v>
@@ -7260,6 +7269,7 @@
       <c r="T13" s="12">
         <v>0.68143289606458124</v>
       </c>
+      <c r="U13" s="18"/>
       <c r="V13" s="15" t="s">
         <v>31</v>
       </c>
@@ -7310,8 +7320,8 @@
       <c r="O14" s="12">
         <v>0.31837606837606836</v>
       </c>
-      <c r="P14" s="12">
-        <v>-2.4301075268817205</v>
+      <c r="P14" s="20">
+        <v>2.4301075268817205</v>
       </c>
       <c r="Q14" s="12">
         <v>-0.11616901408450704</v>
@@ -7325,6 +7335,7 @@
       <c r="T14" s="12">
         <v>0.66749295774647888</v>
       </c>
+      <c r="U14" s="18"/>
       <c r="V14" s="15" t="s">
         <v>72</v>
       </c>
@@ -7375,8 +7386,8 @@
       <c r="O15" s="12">
         <v>0.61074918566775249</v>
       </c>
-      <c r="P15" s="12">
-        <v>-2.9680851063829787</v>
+      <c r="P15" s="20">
+        <v>2.9680851063829787</v>
       </c>
       <c r="Q15" s="12">
         <v>-9.1329479768786123E-2</v>
@@ -7390,6 +7401,7 @@
       <c r="T15" s="12">
         <v>0.62561138283681639</v>
       </c>
+      <c r="U15" s="18"/>
       <c r="V15" s="15" t="s">
         <v>73</v>
       </c>
@@ -7440,8 +7452,8 @@
       <c r="O16" s="12">
         <v>0.67809734513274333</v>
       </c>
-      <c r="P16" s="12">
-        <v>-2.2109375</v>
+      <c r="P16" s="20">
+        <v>2.2109375</v>
       </c>
       <c r="Q16" s="12">
         <v>-2.3743472584856398E-2</v>
@@ -7455,6 +7467,7 @@
       <c r="T16" s="12">
         <v>0.69174281984334207</v>
       </c>
+      <c r="U16" s="18"/>
       <c r="V16" s="15" t="s">
         <v>74</v>
       </c>
@@ -7505,8 +7518,8 @@
       <c r="O17" s="12">
         <v>0.46843754868627252</v>
       </c>
-      <c r="P17" s="12">
-        <v>-90.550420168067234</v>
+      <c r="P17" s="20">
+        <v>90.550420168067234</v>
       </c>
       <c r="Q17" s="12">
         <v>0.29049510937373585</v>
@@ -7520,6 +7533,7 @@
       <c r="T17" s="12">
         <v>0.70703083415305079</v>
       </c>
+      <c r="U17" s="18"/>
       <c r="V17" s="15" t="s">
         <v>75</v>
       </c>
@@ -7570,8 +7584,8 @@
       <c r="O18" s="12">
         <v>0.2745366103743126</v>
       </c>
-      <c r="P18" s="12">
-        <v>-76.770833333333329</v>
+      <c r="P18" s="20">
+        <v>76.770833333333329</v>
       </c>
       <c r="Q18" s="12">
         <v>0.28193728962829806</v>
@@ -7585,6 +7599,7 @@
       <c r="T18" s="12">
         <v>0.80465441735332799</v>
       </c>
+      <c r="U18" s="18"/>
       <c r="V18" s="15" t="s">
         <v>76</v>
       </c>
@@ -7635,8 +7650,8 @@
       <c r="O19" s="12">
         <v>0.31940806166252933</v>
       </c>
-      <c r="P19" s="12">
-        <v>-71.14556962025317</v>
+      <c r="P19" s="20">
+        <v>71.14556962025317</v>
       </c>
       <c r="Q19" s="12">
         <v>0.26993797007533527</v>
@@ -7650,6 +7665,7 @@
       <c r="T19" s="12">
         <v>0.80514472622442879</v>
       </c>
+      <c r="U19" s="18"/>
       <c r="V19" s="15" t="s">
         <v>77</v>
       </c>
@@ -7700,8 +7716,8 @@
       <c r="O20" s="12">
         <v>0.30778941056734177</v>
       </c>
-      <c r="P20" s="12">
-        <v>-58.0625</v>
+      <c r="P20" s="20">
+        <v>58.0625</v>
       </c>
       <c r="Q20" s="12">
         <v>0.27462920919179273</v>
@@ -7715,6 +7731,7 @@
       <c r="T20" s="12">
         <v>0.77422959678046777</v>
       </c>
+      <c r="U20" s="18"/>
       <c r="V20" s="15" t="s">
         <v>61</v>
       </c>
@@ -7765,8 +7782,8 @@
       <c r="O21" s="12">
         <v>0.29996568225581971</v>
       </c>
-      <c r="P21" s="12">
-        <v>-912.35714285714289</v>
+      <c r="P21" s="20">
+        <v>912.35714285714289</v>
       </c>
       <c r="Q21" s="12">
         <v>0.29386194210475358</v>
@@ -7780,6 +7797,7 @@
       <c r="T21" s="12">
         <v>0.83321715558137288</v>
       </c>
+      <c r="U21" s="18"/>
       <c r="V21" s="15" t="s">
         <v>77</v>
       </c>
@@ -7830,8 +7848,8 @@
       <c r="O22" s="12">
         <v>0.13327449249779347</v>
       </c>
-      <c r="P22" s="12">
-        <v>-3.9680851063829787</v>
+      <c r="P22" s="20">
+        <v>3.9680851063829787</v>
       </c>
       <c r="Q22" s="12">
         <v>0.22439024390243903</v>
@@ -7845,6 +7863,7 @@
       <c r="T22" s="12">
         <v>-0.26146341463414635</v>
       </c>
+      <c r="U22" s="18"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -7892,8 +7911,8 @@
       <c r="O23" s="12">
         <v>0.1162751957354656</v>
       </c>
-      <c r="P23" s="12">
-        <v>-4.2541666666666664</v>
+      <c r="P23" s="20">
+        <v>4.2541666666666664</v>
       </c>
       <c r="Q23" s="12">
         <v>0.15671211830228537</v>
@@ -7907,6 +7926,7 @@
       <c r="T23" s="12">
         <v>-0.21663145765315922</v>
       </c>
+      <c r="U23" s="18"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
@@ -7954,8 +7974,8 @@
       <c r="O24" s="12">
         <v>0.18562767475035663</v>
       </c>
-      <c r="P24" s="12">
-        <v>-5.5340314136125652</v>
+      <c r="P24" s="20">
+        <v>5.5340314136125652</v>
       </c>
       <c r="Q24" s="12">
         <v>0.17375478927203064</v>
@@ -7969,6 +7989,7 @@
       <c r="T24" s="12">
         <v>-0.11226053639846743</v>
       </c>
+      <c r="U24" s="18"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
@@ -8016,8 +8037,8 @@
       <c r="O25" s="12">
         <v>0.19065531577905365</v>
       </c>
-      <c r="P25" s="12">
-        <v>-4.5162790697674415</v>
+      <c r="P25" s="20">
+        <v>4.5162790697674415</v>
       </c>
       <c r="Q25" s="12">
         <v>0.14116852414724756</v>
@@ -8031,6 +8052,7 @@
       <c r="T25" s="12">
         <v>-1.485984464707869E-2</v>
       </c>
+      <c r="U25" s="18"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
@@ -8078,8 +8100,8 @@
       <c r="O26" s="12">
         <v>8.1447963800904979E-2</v>
       </c>
-      <c r="P26" s="12">
-        <v>-17.731343283582088</v>
+      <c r="P26" s="20">
+        <v>17.731343283582088</v>
       </c>
       <c r="Q26" s="12">
         <v>0.19666572478101157</v>
@@ -8093,6 +8115,7 @@
       <c r="T26" s="12">
         <v>-8.363944617123481E-2</v>
       </c>
+      <c r="U26" s="18"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -8140,8 +8163,8 @@
       <c r="O27" s="12">
         <v>9.6265836684311365E-2</v>
       </c>
-      <c r="P27" s="12">
-        <v>-57.920634920634917</v>
+      <c r="P27" s="20">
+        <v>57.920634920634917</v>
       </c>
       <c r="Q27" s="12">
         <v>6.4243620542472069E-2</v>
@@ -8155,6 +8178,7 @@
       <c r="T27" s="12">
         <v>0.59609727304173421</v>
       </c>
+      <c r="U27" s="18"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -8202,8 +8226,8 @@
       <c r="O28" s="12">
         <v>0.15450002172873842</v>
       </c>
-      <c r="P28" s="12">
-        <v>-53.957805907172997</v>
+      <c r="P28" s="20">
+        <v>53.957805907172997</v>
       </c>
       <c r="Q28" s="12">
         <v>5.8395018617949983E-2</v>
@@ -8217,6 +8241,7 @@
       <c r="T28" s="12">
         <v>0.58418874487012384</v>
       </c>
+      <c r="U28" s="18"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -8264,8 +8289,8 @@
       <c r="O29" s="12">
         <v>0.12509722582317864</v>
       </c>
-      <c r="P29" s="12">
-        <v>-31.915397631133672</v>
+      <c r="P29" s="20">
+        <v>31.915397631133672</v>
       </c>
       <c r="Q29" s="12">
         <v>5.2852132105248945E-2</v>
@@ -8279,6 +8304,7 @@
       <c r="T29" s="12">
         <v>0.64921649810732496</v>
       </c>
+      <c r="U29" s="18"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
@@ -8326,8 +8352,8 @@
       <c r="O30" s="12">
         <v>9.4242252967340817E-2</v>
       </c>
-      <c r="P30" s="12">
-        <v>-28.816161616161615</v>
+      <c r="P30" s="20">
+        <v>28.816161616161615</v>
       </c>
       <c r="Q30" s="12">
         <v>4.5708191869069381E-2</v>
@@ -8341,6 +8367,7 @@
       <c r="T30" s="12">
         <v>0.6514886393314181</v>
       </c>
+      <c r="U30" s="18"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
@@ -8385,8 +8412,8 @@
       <c r="O31" s="12">
         <v>8.9870235248556973E-2</v>
       </c>
-      <c r="P31" s="12">
-        <v>-395.21212121212119</v>
+      <c r="P31" s="20">
+        <v>395.21212121212119</v>
       </c>
       <c r="Q31" s="12">
         <v>4.4651436794097339E-2</v>
@@ -8400,6 +8427,7 @@
       <c r="T31" s="12">
         <v>0.69407464279333442</v>
       </c>
+      <c r="U31" s="18"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
@@ -8447,8 +8475,8 @@
       <c r="O32" s="12">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="P32" s="12">
-        <v>-10.052631578947368</v>
+      <c r="P32" s="20">
+        <v>10.052631578947368</v>
       </c>
       <c r="Q32" s="12">
         <v>0.12996171670360668</v>
@@ -8462,8 +8490,9 @@
       <c r="T32" s="12">
         <v>0.40721337900463428</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="18"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>47</v>
       </c>
@@ -8509,7 +8538,7 @@
       <c r="O33" s="12">
         <v>0.17411894273127754</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="20">
         <v>0</v>
       </c>
       <c r="Q33" s="12">
@@ -8524,8 +8553,9 @@
       <c r="T33" s="12">
         <v>0.38202770341054593</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="18"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>47</v>
       </c>
@@ -8571,7 +8601,7 @@
       <c r="O34" s="12">
         <v>0.17554980595084088</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="20">
         <v>0</v>
       </c>
       <c r="Q34" s="12">
@@ -8586,8 +8616,9 @@
       <c r="T34" s="12">
         <v>0.22967167842896594</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="18"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>47</v>
       </c>
@@ -8633,8 +8664,8 @@
       <c r="O35" s="12">
         <v>0.15252976190476192</v>
       </c>
-      <c r="P35" s="12">
-        <v>-3.6904761904761907</v>
+      <c r="P35" s="20">
+        <v>3.6904761904761907</v>
       </c>
       <c r="Q35" s="12">
         <v>0.11424219345011424</v>
@@ -8648,8 +8679,9 @@
       <c r="T35" s="12">
         <v>0.10738766184310738</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="18"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>47</v>
       </c>
@@ -8695,8 +8727,8 @@
       <c r="O36" s="12">
         <v>8.9867841409691632E-2</v>
       </c>
-      <c r="P36" s="12">
-        <v>-1.8717948717948718</v>
+      <c r="P36" s="20">
+        <v>1.8717948717948718</v>
       </c>
       <c r="Q36" s="12">
         <v>3.7760995113282986E-2</v>
@@ -8710,8 +8742,9 @@
       <c r="T36" s="12">
         <v>-1.8658374055975122E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="18"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>48</v>
       </c>
@@ -8757,8 +8790,8 @@
       <c r="O37" s="12">
         <v>0.38041631265930331</v>
       </c>
-      <c r="P37" s="12">
-        <v>-194.77777777777777</v>
+      <c r="P37" s="20">
+        <v>194.77777777777777</v>
       </c>
       <c r="Q37" s="12">
         <v>0.41217870257037942</v>
@@ -8772,8 +8805,9 @@
       <c r="T37" s="12">
         <v>0.71940024479804165</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>48</v>
       </c>
@@ -8819,8 +8853,8 @@
       <c r="O38" s="12">
         <v>0.25241080038572805</v>
       </c>
-      <c r="P38" s="12">
-        <v>-199.125</v>
+      <c r="P38" s="20">
+        <v>199.125</v>
       </c>
       <c r="Q38" s="12">
         <v>0.3998754282155092</v>
@@ -8834,8 +8868,9 @@
       <c r="T38" s="12">
         <v>0.73092494549984433</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="18"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -8881,7 +8916,7 @@
       <c r="O39" s="12">
         <v>0.3125845737483085</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="20">
         <v>0</v>
       </c>
       <c r="Q39" s="12">
@@ -8896,8 +8931,9 @@
       <c r="T39" s="12">
         <v>0.69684061057862978</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="18"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>48</v>
       </c>
@@ -8943,7 +8979,7 @@
       <c r="O40" s="12">
         <v>0.32740081572117169</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="20">
         <v>0</v>
       </c>
       <c r="Q40" s="12">
@@ -8958,8 +8994,9 @@
       <c r="T40" s="12">
         <v>0.64402697495183048</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="18"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>48</v>
       </c>
@@ -9005,6 +9042,9 @@
       <c r="O41" s="12">
         <v>0.22966473609952684</v>
       </c>
+      <c r="P41" s="20">
+        <v>0</v>
+      </c>
       <c r="Q41" s="12">
         <v>0.47841982846343944</v>
       </c>
@@ -9017,8 +9057,9 @@
       <c r="T41" s="12">
         <v>0.7738988225032708</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="18"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>49</v>
       </c>
@@ -9064,8 +9105,8 @@
       <c r="O42" s="12">
         <v>2.0005274957140974E-2</v>
       </c>
-      <c r="P42" s="12">
-        <v>-24.625</v>
+      <c r="P42" s="20">
+        <v>24.625</v>
       </c>
       <c r="Q42" s="12">
         <v>7.2478991596638662E-2</v>
@@ -9079,8 +9120,9 @@
       <c r="T42" s="12">
         <v>0.35189075630252103</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="18"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>49</v>
       </c>
@@ -9126,8 +9168,8 @@
       <c r="O43" s="12">
         <v>2.4146304446805281E-2</v>
       </c>
-      <c r="P43" s="12">
-        <v>-42.8</v>
+      <c r="P43" s="20">
+        <v>42.8</v>
       </c>
       <c r="Q43" s="12">
         <v>7.4145402022147325E-2</v>
@@ -9141,8 +9183,9 @@
       <c r="T43" s="12">
         <v>0.3832450649975927</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="18"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>49</v>
       </c>
@@ -9188,8 +9231,8 @@
       <c r="O44" s="12">
         <v>-7.2592067988668559E-4</v>
       </c>
-      <c r="P44" s="12">
-        <v>-15.166666666666666</v>
+      <c r="P44" s="20">
+        <v>15.166666666666666</v>
       </c>
       <c r="Q44" s="12">
         <v>3.3084311632870865E-2</v>
@@ -9203,8 +9246,9 @@
       <c r="T44" s="12">
         <v>0.46531483457844186</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="18"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>49</v>
       </c>
@@ -9250,8 +9294,8 @@
       <c r="O45" s="12">
         <v>5.7908937605396289E-2</v>
       </c>
-      <c r="P45" s="12">
-        <v>-19.285714285714285</v>
+      <c r="P45" s="20">
+        <v>19.285714285714285</v>
       </c>
       <c r="Q45" s="12">
         <v>2.4742268041237112E-2</v>
@@ -9265,8 +9309,9 @@
       <c r="T45" s="12">
         <v>0.43969072164948453</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="18"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>49</v>
       </c>
@@ -9312,8 +9357,8 @@
       <c r="O46" s="12">
         <v>2.5152363696260914E-2</v>
       </c>
-      <c r="P46" s="12">
-        <v>-83</v>
+      <c r="P46" s="20">
+        <v>83</v>
       </c>
       <c r="Q46" s="12">
         <v>0.10778443113772455</v>
@@ -9327,8 +9372,9 @@
       <c r="T46" s="12">
         <v>0.46706586826347307</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="18"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>62</v>
       </c>
@@ -9374,8 +9420,8 @@
       <c r="O47" s="12">
         <v>-1.7605503660318499E-2</v>
       </c>
-      <c r="P47" s="12">
-        <v>-11.136580007323325</v>
+      <c r="P47" s="20">
+        <v>11.136580007323325</v>
       </c>
       <c r="Q47" s="12">
         <v>2.7922479982923003E-2</v>
@@ -9389,8 +9435,9 @@
       <c r="T47" s="12">
         <v>0.53016516160168436</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47" s="18"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>62</v>
       </c>
@@ -9436,8 +9483,8 @@
       <c r="O48" s="12">
         <v>0.12414844624341471</v>
       </c>
-      <c r="P48" s="12">
-        <v>-21.750274544256534</v>
+      <c r="P48" s="20">
+        <v>21.750274544256534</v>
       </c>
       <c r="Q48" s="12">
         <v>0.11393556743604333</v>
@@ -9451,8 +9498,9 @@
       <c r="T48" s="12">
         <v>0.54557920873853871</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="18"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>62</v>
       </c>
@@ -9498,8 +9546,8 @@
       <c r="O49" s="12">
         <v>0.15059610038761206</v>
       </c>
-      <c r="P49" s="12">
-        <v>-10.447841105354058</v>
+      <c r="P49" s="20">
+        <v>10.447841105354058</v>
       </c>
       <c r="Q49" s="12">
         <v>4.2072729629183896E-2</v>
@@ -9513,8 +9561,9 @@
       <c r="T49" s="12">
         <v>0.55972084645364695</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="18"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>62</v>
       </c>
@@ -9560,8 +9609,8 @@
       <c r="O50" s="12">
         <v>6.4793846387409385E-2</v>
       </c>
-      <c r="P50" s="12">
-        <v>-2.9826224328593995</v>
+      <c r="P50" s="20">
+        <v>2.9826224328593995</v>
       </c>
       <c r="Q50" s="12">
         <v>-4.1218445552258919E-2</v>
@@ -9575,8 +9624,9 @@
       <c r="T50" s="12">
         <v>0.58526191607447298</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="18"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>62</v>
       </c>
@@ -9622,8 +9672,8 @@
       <c r="O51" s="12">
         <v>9.1521953198112682E-2</v>
       </c>
-      <c r="P51" s="12">
-        <v>-19.419522571496099</v>
+      <c r="P51" s="20">
+        <v>19.419522571496099</v>
       </c>
       <c r="Q51" s="12">
         <v>8.621036236235198E-2</v>
@@ -9637,8 +9687,9 @@
       <c r="T51" s="12">
         <v>0.60214452734415025</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51" s="18"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>51</v>
       </c>
@@ -9684,8 +9735,8 @@
       <c r="O52" s="12">
         <v>0.49282560706401768</v>
       </c>
-      <c r="P52" s="12">
-        <v>-5.17741935483871</v>
+      <c r="P52" s="20">
+        <v>5.17741935483871</v>
       </c>
       <c r="Q52" s="12">
         <v>5.0107372942018613E-2</v>
@@ -9699,8 +9750,9 @@
       <c r="T52" s="12">
         <v>8.4466714387974234E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="18"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>51</v>
       </c>
@@ -9746,8 +9798,8 @@
       <c r="O53" s="12">
         <v>0.48873390557939916</v>
       </c>
-      <c r="P53" s="12">
-        <v>-15.605263157894736</v>
+      <c r="P53" s="20">
+        <v>15.605263157894736</v>
       </c>
       <c r="Q53" s="12">
         <v>9.5642458100558658E-2</v>
@@ -9761,8 +9813,9 @@
       <c r="T53" s="12">
         <v>6.0335195530726256E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="18"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>51</v>
       </c>
@@ -9808,8 +9861,8 @@
       <c r="O54" s="12">
         <v>0.4286128004633652</v>
       </c>
-      <c r="P54" s="12">
-        <v>-11.620689655172415</v>
+      <c r="P54" s="20">
+        <v>11.620689655172415</v>
       </c>
       <c r="Q54" s="12">
         <v>8.9150943396226409E-2</v>
@@ -9823,8 +9876,9 @@
       <c r="T54" s="12">
         <v>3.5141509433962263E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="18"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>51</v>
       </c>
@@ -9870,8 +9924,8 @@
       <c r="O55" s="12">
         <v>0.40345199568500539</v>
       </c>
-      <c r="P55" s="12">
-        <v>-11.390243902439025</v>
+      <c r="P55" s="20">
+        <v>11.390243902439025</v>
       </c>
       <c r="Q55" s="12">
         <v>7.2097141411586144E-2</v>
@@ -9885,8 +9939,9 @@
       <c r="T55" s="12">
         <v>0.12395648874272704</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="18"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>51</v>
       </c>
@@ -9932,8 +9987,8 @@
       <c r="O56" s="12">
         <v>0.25634824667472794</v>
       </c>
-      <c r="P56" s="12">
-        <v>-7.8354430379746836</v>
+      <c r="P56" s="20">
+        <v>7.8354430379746836</v>
       </c>
       <c r="Q56" s="12">
         <v>0.13256726457399104</v>
@@ -9947,8 +10002,9 @@
       <c r="T56" s="12">
         <v>0.12415919282511211</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="18"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>63</v>
       </c>
@@ -9994,8 +10050,8 @@
       <c r="O57" s="12">
         <v>-1.875041853612804E-3</v>
       </c>
-      <c r="P57" s="12">
-        <v>-5.6111111111111107</v>
+      <c r="P57" s="20">
+        <v>5.6111111111111107</v>
       </c>
       <c r="Q57" s="12">
         <v>3.7558685446009391E-2</v>
@@ -10009,8 +10065,9 @@
       <c r="T57" s="12">
         <v>0.36121781192203728</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="18"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>63</v>
       </c>
@@ -10056,8 +10113,8 @@
       <c r="O58" s="12">
         <v>1.0483619344773791E-2</v>
       </c>
-      <c r="P58" s="12">
-        <v>-6.1341463414634143</v>
+      <c r="P58" s="20">
+        <v>6.1341463414634143</v>
       </c>
       <c r="Q58" s="12">
         <v>1.74017401740174E-2</v>
@@ -10071,8 +10128,9 @@
       <c r="T58" s="12">
         <v>0.36618661866186619</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="18"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>63</v>
       </c>
@@ -10118,7 +10176,7 @@
       <c r="O59" s="12">
         <v>2.4101068999028183E-2</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P59" s="20">
         <v>0</v>
       </c>
       <c r="Q59" s="12">
@@ -10133,8 +10191,9 @@
       <c r="T59" s="12">
         <v>0.34672004132231404</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59" s="18"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>63</v>
       </c>
@@ -10180,8 +10239,8 @@
       <c r="O60" s="12">
         <v>1.1525005145091582E-2</v>
       </c>
-      <c r="P60" s="12">
-        <v>-2.7684210526315791</v>
+      <c r="P60" s="20">
+        <v>2.7684210526315791</v>
       </c>
       <c r="Q60" s="12">
         <v>3.4642032332563508E-2</v>
@@ -10195,8 +10254,9 @@
       <c r="T60" s="12">
         <v>0.38364352669474255</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U60" s="18"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>63</v>
       </c>
@@ -10242,8 +10302,8 @@
       <c r="O61" s="12">
         <v>6.7007910656119128E-3</v>
       </c>
-      <c r="P61" s="12">
-        <v>-5.1226415094339623</v>
+      <c r="P61" s="20">
+        <v>5.1226415094339623</v>
       </c>
       <c r="Q61" s="12">
         <v>6.9435104236718226E-2</v>
@@ -10257,11 +10317,22 @@
       <c r="T61" s="12">
         <v>0.43897108271687962</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P63" s="12">
+      <c r="U61" s="18"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C63" s="2">
+        <f>MAX(C2:C61)</f>
+        <v>16025000</v>
+      </c>
+      <c r="P63" s="20">
         <f>MAX(P2:P61)</f>
-        <v>2.4563106796116503</v>
+        <v>912.35714285714289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
+        <f>MAX(C2,C7,C12,C17,C22,C27,C32,C37,C42,C47,C52,C57)</f>
+        <v>14933000</v>
       </c>
     </row>
   </sheetData>

--- a/Sample Companies Financials Original Format.xlsx
+++ b/Sample Companies Financials Original Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3708a04485001ab/Platform/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="816" documentId="8_{B5691506-39FA-424E-99D4-26D7CBA25480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{578CF9E8-7396-4765-A0AB-58BEF92A7147}"/>
+  <xr:revisionPtr revIDLastSave="1005" documentId="8_{B5691506-39FA-424E-99D4-26D7CBA25480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A37C57A-99F1-47E5-A458-96A8A07A4D51}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D767867-0467-441D-9DC3-18181976D26B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="84">
   <si>
     <t>Turnover</t>
   </si>
@@ -272,14 +272,36 @@
   <si>
     <t>Solvency_Ratio</t>
   </si>
+  <si>
+    <t>Profits</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Cashflow</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Aston Martin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="188" formatCode="#,##0.000000000000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -339,12 +361,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -360,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -420,6 +454,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6410,15 +6492,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C384203C-F021-4178-95D6-38ABC9D05E39}">
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="15"/>
-    <col min="3" max="12" width="12.7109375" style="2"/>
+    <col min="3" max="6" width="12.7109375" style="2"/>
+    <col min="7" max="7" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2"/>
+    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.7109375" style="2"/>
     <col min="13" max="15" width="12.7109375" style="12"/>
     <col min="16" max="16" width="12.7109375" style="20"/>
     <col min="17" max="20" width="12.7109375" style="12"/>
@@ -6487,68 +6575,68 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="21">
         <v>2023</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="22">
         <v>1633000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="22">
         <v>3173000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="22">
         <v>2616000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="22">
         <v>-88000</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="22">
         <v>-228000</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="22">
         <v>-54500</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="22">
         <v>902000</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="22">
         <v>155000</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="22">
         <v>1069000</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="22">
         <v>923000</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="23">
         <v>-5.3888548683404779E-2</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="23">
         <v>-0.13962033067973056</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="23">
         <v>-3.3374157991426824E-2</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="24">
         <v>-0.56774193548387097</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="23">
         <v>-7.1856287425149698E-2</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="23">
         <v>0.28427355814686417</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="23">
         <v>1.1581798483206933</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="23">
         <v>0.28427355814686417</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6812,69 +6900,69 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="21">
         <v>2023</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="22">
         <v>1749000</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="22">
         <v>1898000</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="22">
         <v>1506000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="22">
         <v>120000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="22">
         <v>124000</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="22">
         <v>148000</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="22">
         <v>392000</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="22">
         <v>24000</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="22">
         <v>611000</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="22">
         <v>392000</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="23">
         <v>6.86106346483705E-2</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="23">
         <v>7.0897655803316181E-2</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="23">
         <v>8.4619782732990284E-2</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="24">
         <v>5</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="23">
         <v>6.5331928345626969E-2</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="23">
         <v>0.2065331928345627</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="23">
         <v>1.5586734693877551</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="23">
         <v>0.2065331928345627</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="15" t="s">
+      <c r="U7" s="25"/>
+      <c r="V7" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7142,69 +7230,69 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="21">
         <v>2023</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="22">
         <v>420000</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="22">
         <v>8290000</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="22">
         <v>2765000</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="22">
         <v>323000</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="22">
         <v>-1038000</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="22">
         <v>240000</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="22">
         <v>5512000</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="22">
         <v>90000</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="22">
         <v>1985000</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="22">
         <v>5525000</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="23">
         <v>0.76904761904761909</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="23">
         <v>-2.4714285714285715</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="23">
         <v>0.5714285714285714</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="24">
         <v>3.588888888888889</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="23">
         <v>-0.12521109770808203</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="23">
         <v>0.66489746682750306</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="23">
         <v>0.35927601809954751</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="23">
         <v>0.66489746682750306</v>
       </c>
-      <c r="U12" s="18"/>
-      <c r="V12" s="15" t="s">
+      <c r="U12" s="25"/>
+      <c r="V12" s="21" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7472,69 +7560,69 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="21">
         <v>2023</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="22">
         <v>218234</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="22">
         <v>234837</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="22">
         <v>68800</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="22">
         <v>86204</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="22">
         <v>68219</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="22">
         <v>102229</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="22">
         <v>166037</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="22">
         <v>952</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="22">
         <v>10866</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="22">
         <v>166037</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="23">
         <v>0.39500719411274138</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="23">
         <v>0.31259565420603574</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="23">
         <v>0.46843754868627252</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="24">
         <v>90.550420168067234</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="23">
         <v>0.29049510937373585</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="23">
         <v>0.70703083415305079</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="23">
         <v>6.5443244578015744E-2</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="23">
         <v>0.70703083415305079</v>
       </c>
-      <c r="U17" s="18"/>
-      <c r="V17" s="15" t="s">
+      <c r="U17" s="25"/>
+      <c r="V17" s="21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7802,68 +7890,68 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="21">
         <v>2023</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="22">
         <v>679800</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="22">
         <v>512500</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="22">
         <v>646500</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="22">
         <v>111900</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="22">
         <v>115000</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="22">
         <v>90600</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="22">
         <v>-134000</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="22">
         <v>28200</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="22">
         <v>494100</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="22">
         <v>-134000</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="23">
         <v>0.16460723742277139</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="23">
         <v>0.1691674021771109</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="23">
         <v>0.13327449249779347</v>
       </c>
-      <c r="P22" s="20">
+      <c r="P22" s="24">
         <v>3.9680851063829787</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="23">
         <v>0.22439024390243903</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="23">
         <v>-0.26146341463414635</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="23">
         <v>-3.687313432835821</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="23">
         <v>-0.26146341463414635</v>
       </c>
-      <c r="U22" s="18"/>
+      <c r="U22" s="25"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -8429,68 +8517,68 @@
       </c>
       <c r="U31" s="18"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="21">
         <v>2023</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="22">
         <v>1000000</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="22">
         <v>992600</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="22">
         <v>588400</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="22">
         <v>191000</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="22">
         <v>129000</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="22">
         <v>32100</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="22">
         <v>404200</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="22">
         <v>19000</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="22">
         <v>417700</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="22">
         <v>404200</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="23">
         <v>0.191</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="23">
         <v>0.129</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="23">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="P32" s="20">
+      <c r="P32" s="24">
         <v>10.052631578947368</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="Q32" s="23">
         <v>0.12996171670360668</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="23">
         <v>0.40721337900463428</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="23">
         <v>1.0333993072736269</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="23">
         <v>0.40721337900463428</v>
       </c>
-      <c r="U32" s="18"/>
+      <c r="U32" s="25"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
@@ -8744,68 +8832,68 @@
       </c>
       <c r="U36" s="18"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="21">
         <v>2023</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="22">
         <v>470800</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="22">
         <v>326800</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="22">
         <v>91700</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="22">
         <v>175300</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="22">
         <v>134700</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="22">
         <v>179100</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="22">
         <v>235100</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="22">
         <v>900</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="22">
         <v>40000</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="22">
         <v>235100</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="23">
         <v>0.37234494477485131</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="23">
         <v>0.2861087510620221</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="23">
         <v>0.38041631265930331</v>
       </c>
-      <c r="P37" s="20">
+      <c r="P37" s="24">
         <v>194.77777777777777</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q37" s="23">
         <v>0.41217870257037942</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R37" s="23">
         <v>0.71940024479804165</v>
       </c>
-      <c r="S37" s="12">
+      <c r="S37" s="23">
         <v>0.17014036580178649</v>
       </c>
-      <c r="T37" s="12">
+      <c r="T37" s="23">
         <v>0.71940024479804165</v>
       </c>
-      <c r="U37" s="18"/>
+      <c r="U37" s="25"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
@@ -9059,68 +9147,68 @@
       </c>
       <c r="U41" s="18"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="21">
         <v>2023</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="22">
         <v>7583000</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="22">
         <v>1904000</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="22">
         <v>1234000</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="22">
         <v>197000</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="22">
         <v>138000</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="22">
         <v>151700</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="22">
         <v>670000</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="22">
         <v>8000</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="22">
         <v>159000</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="22">
         <v>670000</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="23">
         <v>2.5979163919293155E-2</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="23">
         <v>1.8198602136357642E-2</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="23">
         <v>2.0005274957140974E-2</v>
       </c>
-      <c r="P42" s="20">
+      <c r="P42" s="24">
         <v>24.625</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="Q42" s="23">
         <v>7.2478991596638662E-2</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="23">
         <v>0.35189075630252103</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="23">
         <v>0.2373134328358209</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="23">
         <v>0.35189075630252103</v>
       </c>
-      <c r="U42" s="18"/>
+      <c r="U42" s="25"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
@@ -9374,68 +9462,68 @@
       </c>
       <c r="U46" s="18"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="21">
         <v>2023</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="22">
         <v>405839</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="22">
         <v>754231</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="22">
         <v>354364</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="22">
         <v>60828</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="22">
         <v>21060</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="22">
         <v>-7145</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="22">
         <v>399867</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="22">
         <v>5462</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="22">
         <v>133533</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="22">
         <v>399867</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="23">
         <v>0.14988209610214889</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="23">
         <v>5.1892499242310375E-2</v>
       </c>
-      <c r="O47" s="12">
+      <c r="O47" s="23">
         <v>-1.7605503660318499E-2</v>
       </c>
-      <c r="P47" s="20">
+      <c r="P47" s="24">
         <v>11.136580007323325</v>
       </c>
-      <c r="Q47" s="12">
+      <c r="Q47" s="23">
         <v>2.7922479982923003E-2</v>
       </c>
-      <c r="R47" s="12">
+      <c r="R47" s="23">
         <v>0.53016516160168436</v>
       </c>
-      <c r="S47" s="12">
+      <c r="S47" s="23">
         <v>0.33394353622579509</v>
       </c>
-      <c r="T47" s="12">
+      <c r="T47" s="23">
         <v>0.53016516160168436</v>
       </c>
-      <c r="U47" s="18"/>
+      <c r="U47" s="25"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
@@ -9689,68 +9777,68 @@
       </c>
       <c r="U51" s="18"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="21">
         <v>2023</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="22">
         <v>3624000</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="22">
         <v>4191000</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="22">
         <v>2363000</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="22">
         <v>321000</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="22">
         <v>210000</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="22">
         <v>1786000</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="22">
         <v>354000</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="22">
         <v>62000</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="22">
         <v>855000</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="22">
         <v>1828000</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M52" s="23">
         <v>8.8576158940397345E-2</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N52" s="23">
         <v>5.7947019867549666E-2</v>
       </c>
-      <c r="O52" s="12">
+      <c r="O52" s="23">
         <v>0.49282560706401768</v>
       </c>
-      <c r="P52" s="20">
+      <c r="P52" s="24">
         <v>5.17741935483871</v>
       </c>
-      <c r="Q52" s="12">
+      <c r="Q52" s="23">
         <v>5.0107372942018613E-2</v>
       </c>
-      <c r="R52" s="12">
+      <c r="R52" s="23">
         <v>8.4466714387974234E-2</v>
       </c>
-      <c r="S52" s="12">
+      <c r="S52" s="23">
         <v>0.46772428884026257</v>
       </c>
-      <c r="T52" s="12">
+      <c r="T52" s="23">
         <v>8.4466714387974234E-2</v>
       </c>
-      <c r="U52" s="18"/>
+      <c r="U52" s="25"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
@@ -10004,68 +10092,68 @@
       </c>
       <c r="U56" s="18"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+    <row r="57" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="21">
         <v>2023</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="22">
         <v>14933000</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="22">
         <v>7029000</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="22">
         <v>4490000</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="22">
         <v>505000</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="22">
         <v>264000</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="22">
         <v>-28000</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="22">
         <v>2539000</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="22">
         <v>90000</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="22">
         <v>1491000</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="22">
         <v>2539000</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M57" s="23">
         <v>3.3817719145516643E-2</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="23">
         <v>1.7678966048349294E-2</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O57" s="23">
         <v>-1.875041853612804E-3</v>
       </c>
-      <c r="P57" s="20">
+      <c r="P57" s="24">
         <v>5.6111111111111107</v>
       </c>
-      <c r="Q57" s="12">
+      <c r="Q57" s="23">
         <v>3.7558685446009391E-2</v>
       </c>
-      <c r="R57" s="12">
+      <c r="R57" s="23">
         <v>0.36121781192203728</v>
       </c>
-      <c r="S57" s="12">
+      <c r="S57" s="23">
         <v>0.58723907050019697</v>
       </c>
-      <c r="T57" s="12">
+      <c r="T57" s="23">
         <v>0.36121781192203728</v>
       </c>
-      <c r="U57" s="18"/>
+      <c r="U57" s="25"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
@@ -10335,6 +10423,146 @@
         <v>14933000</v>
       </c>
     </row>
+    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F66" s="12"/>
+      <c r="H66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="H67" s="2">
+        <v>218234</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1633000</v>
+      </c>
+      <c r="J67" s="2">
+        <v>420000</v>
+      </c>
+      <c r="K67" s="2">
+        <v>14933000</v>
+      </c>
+      <c r="L67" s="2" t="b">
+        <f t="shared" ref="L67:L69" si="0">K67&gt;J67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="H68" s="2">
+        <v>234837</v>
+      </c>
+      <c r="I68" s="2">
+        <v>3173000</v>
+      </c>
+      <c r="J68" s="2">
+        <v>8290000</v>
+      </c>
+      <c r="K68" s="2">
+        <v>8290000</v>
+      </c>
+      <c r="L68" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" s="29"/>
+      <c r="H69" s="31">
+        <v>-5.38885486834047</v>
+      </c>
+      <c r="I69" s="26">
+        <v>-5.3888548683404702E-2</v>
+      </c>
+      <c r="J69" s="35">
+        <v>0.76904761904761909</v>
+      </c>
+      <c r="K69" s="36">
+        <v>76905</v>
+      </c>
+      <c r="L69" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31">
+        <v>-3.3374157991426801</v>
+      </c>
+      <c r="I70" s="28">
+        <v>-3.3374157991426803E-2</v>
+      </c>
+      <c r="J70" s="34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K70" s="33">
+        <v>57143</v>
+      </c>
+      <c r="L70" s="2" t="b">
+        <f>K70&gt;J70</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="32">
+        <f>H71/100</f>
+        <v>-0.56774193548386997</v>
+      </c>
+      <c r="H71" s="27">
+        <v>-56.774193548386997</v>
+      </c>
+      <c r="I71" s="32">
+        <v>-0.56774193548387097</v>
+      </c>
+      <c r="J71" s="9">
+        <v>3.588888888888889</v>
+      </c>
+      <c r="K71" s="2">
+        <v>19478</v>
+      </c>
+      <c r="L71" s="2" t="b">
+        <f>K71&gt;J71</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G72" s="2" t="b">
+        <f>G71&lt;I71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G73" s="2" t="b">
+        <f>I71&lt;G71</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
